--- a/Excel/Отчет поставщиков.xlsx
+++ b/Excel/Отчет поставщиков.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC1\PycharmProjects\data_analyst_tasks\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -217,7 +217,7 @@
     <t>Менеджер отдела закупок</t>
   </si>
   <si>
-    <t>Задачи</t>
+    <t>Задача</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1089,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1650,7 +1649,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2148,7 +2146,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2718,7 +2715,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3216,7 +3212,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3786,7 +3781,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4284,7 +4278,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5802,7 +5795,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6336,7 +6328,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6834,7 +6825,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7404,7 +7394,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7902,7 +7891,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8472,7 +8460,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9006,7 +8993,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9531,7 +9517,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11525,7 +11510,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
